--- a/Gestures.xlsx
+++ b/Gestures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\Hydraulic-Mimic-Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3329950F-784A-403C-B166-19EC0D432DF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F2A89E-8F8C-4354-8A2B-CA7CC08F6A02}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4770" xr2:uid="{2FC38CF9-EBE8-4015-AE4B-E5C2947A7638}"/>
   </bookViews>
@@ -451,6 +451,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -517,7 +520,7 @@
         <v xml:space="preserve">{1198, </v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:R2" si="0">CONCATENATE(D2,", ")</f>
+        <f t="shared" ref="L2:Q2" si="0">CONCATENATE(D2,", ")</f>
         <v xml:space="preserve">1175, </v>
       </c>
       <c r="M2" t="str">
@@ -609,7 +612,7 @@
         <v xml:space="preserve">1078, </v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R13" si="8">CONCATENATE(J3,"} ,")</f>
+        <f t="shared" ref="R3:R12" si="8">CONCATENATE(J3,"} ,")</f>
         <v>1164} ,</v>
       </c>
       <c r="S3" t="str">
